--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Inhbb-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Inhbb-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Inhbb</t>
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.525153666666667</v>
+        <v>1.165518666666667</v>
       </c>
       <c r="H2">
-        <v>7.575461000000001</v>
+        <v>3.496556</v>
       </c>
       <c r="I2">
-        <v>0.7378191762484796</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="J2">
-        <v>0.7378191762484798</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N2">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q2">
-        <v>43.25650686467355</v>
+        <v>18.98448941801689</v>
       </c>
       <c r="R2">
-        <v>389.308561782062</v>
+        <v>170.860404762152</v>
       </c>
       <c r="S2">
-        <v>0.2183362966532293</v>
+        <v>0.04111404763000834</v>
       </c>
       <c r="T2">
-        <v>0.2183362966532294</v>
+        <v>0.04111404763000835</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.525153666666667</v>
+        <v>1.165518666666667</v>
       </c>
       <c r="H3">
-        <v>7.575461000000001</v>
+        <v>3.496556</v>
       </c>
       <c r="I3">
-        <v>0.7378191762484796</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="J3">
-        <v>0.7378191762484798</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N3">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O3">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P3">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q3">
-        <v>69.72178220932445</v>
+        <v>32.18102712359111</v>
       </c>
       <c r="R3">
-        <v>627.4960398839202</v>
+        <v>289.62924411232</v>
       </c>
       <c r="S3">
-        <v>0.3519192100108982</v>
+        <v>0.06969332979196471</v>
       </c>
       <c r="T3">
-        <v>0.3519192100108982</v>
+        <v>0.06969332979196473</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.525153666666667</v>
+        <v>1.165518666666667</v>
       </c>
       <c r="H4">
-        <v>7.575461000000001</v>
+        <v>3.496556</v>
       </c>
       <c r="I4">
-        <v>0.7378191762484796</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="J4">
-        <v>0.7378191762484798</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N4">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q4">
-        <v>22.02744655832122</v>
+        <v>30.61389209223333</v>
       </c>
       <c r="R4">
-        <v>198.247019024891</v>
+        <v>275.5250288301</v>
       </c>
       <c r="S4">
-        <v>0.1111830671236766</v>
+        <v>0.06629944002736821</v>
       </c>
       <c r="T4">
-        <v>0.1111830671236766</v>
+        <v>0.06629944002736822</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.525153666666667</v>
+        <v>1.165518666666667</v>
       </c>
       <c r="H5">
-        <v>7.575461000000001</v>
+        <v>3.496556</v>
       </c>
       <c r="I5">
-        <v>0.7378191762484796</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="J5">
-        <v>0.7378191762484798</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N5">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O5">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P5">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q5">
-        <v>11.17005259665133</v>
+        <v>5.429227600203555</v>
       </c>
       <c r="R5">
-        <v>100.530473369862</v>
+        <v>48.863048401832</v>
       </c>
       <c r="S5">
-        <v>0.0563806024606755</v>
+        <v>0.01175788915013349</v>
       </c>
       <c r="T5">
-        <v>0.05638060246067549</v>
+        <v>0.0117578891501335</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>1.121927</v>
       </c>
       <c r="I6">
-        <v>0.1092711394000877</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="J6">
-        <v>0.1092711394000878</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N6">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O6">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P6">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q6">
-        <v>6.406295666648223</v>
+        <v>6.091482950448223</v>
       </c>
       <c r="R6">
-        <v>57.65666099983401</v>
+        <v>54.823346554034</v>
       </c>
       <c r="S6">
-        <v>0.03233564086664398</v>
+        <v>0.01319211250024092</v>
       </c>
       <c r="T6">
-        <v>0.03233564086664398</v>
+        <v>0.01319211250024092</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>1.121927</v>
       </c>
       <c r="I7">
-        <v>0.1092711394000877</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="J7">
-        <v>0.1092711394000878</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N7">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O7">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P7">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q7">
         <v>10.32580722793778</v>
       </c>
       <c r="R7">
-        <v>92.93226505144003</v>
+        <v>92.93226505144</v>
       </c>
       <c r="S7">
-        <v>0.05211929195198773</v>
+        <v>0.02236224113485087</v>
       </c>
       <c r="T7">
-        <v>0.05211929195198774</v>
+        <v>0.02236224113485087</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>1.121927</v>
       </c>
       <c r="I8">
-        <v>0.1092711394000877</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="J8">
-        <v>0.1092711394000878</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N8">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O8">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P8">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q8">
-        <v>3.262268399881889</v>
+        <v>9.822966402758334</v>
       </c>
       <c r="R8">
-        <v>29.360415598937</v>
+        <v>88.40669762482501</v>
       </c>
       <c r="S8">
-        <v>0.01646623023323137</v>
+        <v>0.02127325627033719</v>
       </c>
       <c r="T8">
-        <v>0.01646623023323137</v>
+        <v>0.0212732562703372</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,10 +977,10 @@
         <v>1.121927</v>
       </c>
       <c r="I9">
-        <v>0.1092711394000877</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="J9">
-        <v>0.1092711394000878</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N9">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O9">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P9">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q9">
-        <v>1.654286597159333</v>
+        <v>1.742056192954889</v>
       </c>
       <c r="R9">
-        <v>14.888579374434</v>
+        <v>15.678505736594</v>
       </c>
       <c r="S9">
-        <v>0.008349976348224653</v>
+        <v>0.0037727104329351</v>
       </c>
       <c r="T9">
-        <v>0.008349976348224653</v>
+        <v>0.0037727104329351</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5233266666666666</v>
+        <v>4.624333</v>
       </c>
       <c r="H10">
-        <v>1.56998</v>
+        <v>13.872999</v>
       </c>
       <c r="I10">
-        <v>0.1529096843514326</v>
+        <v>0.7493430352008683</v>
       </c>
       <c r="J10">
-        <v>0.1529096843514326</v>
+        <v>0.7493430352008682</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N10">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O10">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P10">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q10">
-        <v>8.964715236128887</v>
+        <v>75.32320452229534</v>
       </c>
       <c r="R10">
-        <v>80.68243712516001</v>
+        <v>677.9088407006579</v>
       </c>
       <c r="S10">
-        <v>0.04524920912663097</v>
+        <v>0.1631248410313057</v>
       </c>
       <c r="T10">
-        <v>0.04524920912663097</v>
+        <v>0.1631248410313057</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5233266666666666</v>
+        <v>4.624333</v>
       </c>
       <c r="H11">
-        <v>1.56998</v>
+        <v>13.872999</v>
       </c>
       <c r="I11">
-        <v>0.1529096843514326</v>
+        <v>0.7493430352008683</v>
       </c>
       <c r="J11">
-        <v>0.1529096843514326</v>
+        <v>0.7493430352008682</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N11">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O11">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P11">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q11">
-        <v>14.44952374951111</v>
+        <v>127.6820268585867</v>
       </c>
       <c r="R11">
-        <v>130.0457137456</v>
+        <v>1149.13824172728</v>
       </c>
       <c r="S11">
-        <v>0.07293366322299195</v>
+        <v>0.2765165192579775</v>
       </c>
       <c r="T11">
-        <v>0.07293366322299195</v>
+        <v>0.2765165192579775</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5233266666666666</v>
+        <v>4.624333</v>
       </c>
       <c r="H12">
-        <v>1.56998</v>
+        <v>13.872999</v>
       </c>
       <c r="I12">
-        <v>0.1529096843514326</v>
+        <v>0.7493430352008683</v>
       </c>
       <c r="J12">
-        <v>0.1529096843514326</v>
+        <v>0.7493430352008682</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N12">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O12">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P12">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q12">
-        <v>4.565088586375555</v>
+        <v>121.464233486225</v>
       </c>
       <c r="R12">
-        <v>41.08579727738</v>
+        <v>1093.178101376025</v>
       </c>
       <c r="S12">
-        <v>0.02304218736296442</v>
+        <v>0.2630508606755445</v>
       </c>
       <c r="T12">
-        <v>0.02304218736296442</v>
+        <v>0.2630508606755445</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.624333</v>
+      </c>
+      <c r="H13">
+        <v>13.872999</v>
+      </c>
+      <c r="I13">
+        <v>0.7493430352008683</v>
+      </c>
+      <c r="J13">
+        <v>0.7493430352008682</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.658207333333333</v>
+      </c>
+      <c r="N13">
+        <v>13.974622</v>
+      </c>
+      <c r="O13">
+        <v>0.06225561864805391</v>
+      </c>
+      <c r="P13">
+        <v>0.06225561864805392</v>
+      </c>
+      <c r="Q13">
+        <v>21.54110189237533</v>
+      </c>
+      <c r="R13">
+        <v>193.869917031378</v>
+      </c>
+      <c r="S13">
+        <v>0.0466508142360405</v>
+      </c>
+      <c r="T13">
+        <v>0.0466508142360405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.5233266666666666</v>
-      </c>
-      <c r="H13">
-        <v>1.56998</v>
-      </c>
-      <c r="I13">
-        <v>0.1529096843514326</v>
-      </c>
-      <c r="J13">
-        <v>0.1529096843514326</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4.423514</v>
-      </c>
-      <c r="N13">
-        <v>13.270542</v>
-      </c>
-      <c r="O13">
-        <v>0.07641520344774541</v>
-      </c>
-      <c r="P13">
-        <v>0.07641520344774538</v>
-      </c>
-      <c r="Q13">
-        <v>2.314942836573333</v>
-      </c>
-      <c r="R13">
-        <v>20.83448552916</v>
-      </c>
-      <c r="S13">
-        <v>0.01168462463884525</v>
-      </c>
-      <c r="T13">
-        <v>0.01168462463884525</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.022067</v>
+      </c>
+      <c r="I14">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="J14">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>16.28844733333333</v>
+      </c>
+      <c r="N14">
+        <v>48.865342</v>
+      </c>
+      <c r="O14">
+        <v>0.2176904746803693</v>
+      </c>
+      <c r="P14">
+        <v>0.2176904746803693</v>
+      </c>
+      <c r="Q14">
+        <v>0.1198123891015556</v>
+      </c>
+      <c r="R14">
+        <v>1.078311501914</v>
+      </c>
+      <c r="S14">
+        <v>0.0002594735188143403</v>
+      </c>
+      <c r="T14">
+        <v>0.0002594735188143403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.022067</v>
+      </c>
+      <c r="I15">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="J15">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>27.61090666666666</v>
+      </c>
+      <c r="N15">
+        <v>82.83271999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.3690119294748028</v>
+      </c>
+      <c r="P15">
+        <v>0.3690119294748029</v>
+      </c>
+      <c r="Q15">
+        <v>0.2030966258044444</v>
+      </c>
+      <c r="R15">
+        <v>1.82786963224</v>
+      </c>
+      <c r="S15">
+        <v>0.0004398392900097368</v>
+      </c>
+      <c r="T15">
+        <v>0.0004398392900097369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.022067</v>
+      </c>
+      <c r="I16">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="J16">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>26.266325</v>
+      </c>
+      <c r="N16">
+        <v>78.798975</v>
+      </c>
+      <c r="O16">
+        <v>0.3510419771967738</v>
+      </c>
+      <c r="P16">
+        <v>0.3510419771967739</v>
+      </c>
+      <c r="Q16">
+        <v>0.1932063312583333</v>
+      </c>
+      <c r="R16">
+        <v>1.738856981325</v>
+      </c>
+      <c r="S16">
+        <v>0.0004184202235239287</v>
+      </c>
+      <c r="T16">
+        <v>0.0004184202235239288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.022067</v>
+      </c>
+      <c r="I17">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="J17">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.658207333333333</v>
+      </c>
+      <c r="N17">
+        <v>13.974622</v>
+      </c>
+      <c r="O17">
+        <v>0.06225561864805391</v>
+      </c>
+      <c r="P17">
+        <v>0.06225561864805392</v>
+      </c>
+      <c r="Q17">
+        <v>0.03426422040822222</v>
+      </c>
+      <c r="R17">
+        <v>0.308377983674</v>
+      </c>
+      <c r="S17">
+        <v>7.420482894482336E-05</v>
+      </c>
+      <c r="T17">
+        <v>7.420482894482337E-05</v>
       </c>
     </row>
   </sheetData>
